--- a/Data/全部数据/原始excel/k=1.9/shidi-调节2hz_20160908_101237_ASIC_EEG.xlsx
+++ b/Data/全部数据/原始excel/k=1.9/shidi-调节2hz_20160908_101237_ASIC_EEG.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\脑电波\lz\全部数据\原始excel\k=1.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="第一组" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,19 +99,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,9 +206,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -241,9 +241,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -427,7 +427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -442,9 +442,9 @@
       <selection sqref="A1:W1047"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>123</v>
       </c>
@@ -586,7 +586,7 @@
         <v>101237</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>636</v>
       </c>
@@ -657,7 +657,7 @@
         <v>101238</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1149</v>
       </c>
@@ -728,7 +728,7 @@
         <v>101239</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1662</v>
       </c>
@@ -799,7 +799,7 @@
         <v>101240</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2175</v>
       </c>
@@ -870,7 +870,7 @@
         <v>101241</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2688</v>
       </c>
@@ -941,7 +941,7 @@
         <v>101242</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3201</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>101243</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3714</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>101244</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4227</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>101245</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4740</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>101246</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5253</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>101247</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5766</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>101248</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6279</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>101249</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6792</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>101250</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7305</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>101251</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7818</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>101252</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8331</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>101253</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8844</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>101254</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9357</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>101255</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9870</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>101256</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10383</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>101257</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10896</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>101258</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>11409</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>101259</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11922</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>101300</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>12435</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>101301</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>12948</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>101302</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>13461</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>101303</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>13974</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>101304</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>14487</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>101305</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>15000</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>101306</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>15513</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>101307</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>16026</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>101308</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>16539</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>101309</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>17052</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>101310</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>17565</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>101311</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18078</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>101312</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>18591</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>101313</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>19104</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>101314</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>19617</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>101315</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20130</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>101316</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20643</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>101317</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>21156</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>101318</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>21669</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>101319</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22182</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>101320</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>22695</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>101321</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>23208</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>101322</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>23721</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>101323</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24234</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>101324</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>24747</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>101325</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>25260</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>101326</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>25773</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>101327</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>26286</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>101328</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>26799</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>101329</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>27312</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>101330</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>27825</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>101331</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>28338</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>101332</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>28851</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>101333</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>29364</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>101334</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>29877</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>101335</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>30390</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>101335</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>30903</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>101336</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>31416</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>101337</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>31929</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>101338</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>32442</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>101339</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>32955</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>101340</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>33468</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>101341</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>33981</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>101342</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>34494</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>101343</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>35007</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>101344</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>35520</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>101345</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>36033</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>101346</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>36546</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>101347</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>37059</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>101348</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>37572</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>101349</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>38085</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>101350</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>38598</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>101351</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>39111</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>101352</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>39624</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>101353</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>40137</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>101354</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>40650</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>101355</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>41163</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>101356</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>41676</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>101357</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>42189</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>101358</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>42702</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>101359</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>43215</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>101400</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>43728</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>101401</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>44241</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>101402</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>44754</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>101403</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>45267</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>101404</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>45780</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>101405</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>46293</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>101406</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>46806</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>101407</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>47319</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>101408</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>47832</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>101409</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>48345</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>101410</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>48858</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>101411</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>49371</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>101412</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>49884</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>101413</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>50397</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>101414</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>50910</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>101415</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>51423</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>101416</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>51936</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>101417</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>52449</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>101418</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>52962</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>101419</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>53475</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>101420</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>53988</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>101421</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>54501</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>101422</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>55014</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>101423</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>55527</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>101424</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>56040</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>101425</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>56553</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>101426</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>57579</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>101428</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>58092</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>101429</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>58605</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>101430</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>59118</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>101431</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>59631</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>101432</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>60144</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>101433</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>60657</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>101434</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>61170</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>101435</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>61683</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>101436</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>62709</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>101438</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>63222</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>101439</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>63735</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>101440</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>64248</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>101441</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>64761</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>101442</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>65274</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>101443</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>65787</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>101444</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>66300</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>101445</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>66813</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>101446</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>67326</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>101447</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>67839</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>101448</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>68352</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>101449</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>68865</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>101450</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>69378</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>101451</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>69891</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>101452</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>70404</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>101453</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>70917</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>101454</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>71430</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>101455</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>71943</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>101456</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>72456</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>101457</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>72969</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>101458</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>73482</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>101459</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>73995</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>101500</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>74508</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>101501</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>75021</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>101502</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>75534</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>101503</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>76047</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>101504</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>76560</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>101505</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>77073</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>101506</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>77586</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>101507</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>78099</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>101508</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>78612</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>101509</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>79125</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>101510</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>79638</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>101511</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>80151</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>101512</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>80664</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>101513</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>81177</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>101514</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>81690</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>101515</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>82203</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>101516</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>82716</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>101517</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>83229</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>101518</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>83742</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>101519</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>84255</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>101520</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>84768</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>101521</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>85281</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>101522</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>85794</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>101523</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>86307</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>101524</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>86820</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>101525</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>87333</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>101526</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>87846</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>101527</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>88359</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>101528</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>88872</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>101529</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>89385</v>
       </c>
@@ -12798,7 +12798,7 @@
         <v>101530</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>89898</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>101531</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>90411</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>101532</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>90924</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>101533</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>91437</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>101534</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>91950</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>101535</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>92463</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>101536</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>92976</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>101537</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>93489</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>101538</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>94002</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>101539</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>94515</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>101540</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>95028</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>101541</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>95541</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>101542</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>96054</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>101543</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>96567</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>101544</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>97080</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>101545</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>97593</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>101546</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>98106</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>101547</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>98619</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>101548</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>99132</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>101549</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>99645</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>101550</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>100158</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>101551</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>100671</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>101552</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>101184</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>101553</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>101697</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>101554</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>102210</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>101555</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>102723</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>101556</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>103236</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>101557</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>103749</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>101558</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>104262</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>101559</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>104775</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>101600</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>105288</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>101601</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>105801</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>101602</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>106314</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>101603</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>106827</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>101604</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>107340</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>101605</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>107853</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>101606</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>108366</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>101607</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>108879</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>101608</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>109392</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>101609</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>109905</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>101610</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>110418</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>101611</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>110931</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>101612</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>111444</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>101613</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>111957</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>101614</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>112470</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>101615</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>112983</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>101616</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>113496</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>101617</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>114009</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>101618</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>114522</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>101619</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>115035</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>101620</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>115548</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>101621</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>116061</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>101622</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>116574</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>101623</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>117087</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>101624</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>117600</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>101625</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>118113</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>101626</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>118626</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>101627</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>119139</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>101628</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>119652</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>101629</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>120165</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>101630</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>120678</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>101631</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>121191</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>101632</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>121704</v>
       </c>
@@ -17271,7 +17271,7 @@
         <v>101633</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>122217</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>101634</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>122730</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>101635</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>123243</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>101636</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>123756</v>
       </c>
@@ -17555,7 +17555,7 @@
         <v>101637</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>124269</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>101638</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>124782</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>101639</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>125808</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>101641</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>126321</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>101642</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>126834</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>101643</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>127347</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>101644</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>127860</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>101645</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>128373</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>101646</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>128886</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>101647</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>129399</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>101648</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>129912</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>101649</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>130425</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>101650</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>130938</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>101651</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>131451</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>101652</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>131964</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>101653</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>132477</v>
       </c>
@@ -18691,7 +18691,7 @@
         <v>101653</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>132990</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>101654</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>133503</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>101655</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>134016</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>101656</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>134529</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>101657</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>135042</v>
       </c>
@@ -19046,7 +19046,7 @@
         <v>101658</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>135555</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>101659</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>136068</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>101700</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>136581</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>101701</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>137094</v>
       </c>
@@ -19330,7 +19330,7 @@
         <v>101702</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>137607</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>101703</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>138120</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>101704</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>138633</v>
       </c>
@@ -19543,7 +19543,7 @@
         <v>101705</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>139146</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>101706</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>139659</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>101707</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>140172</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>101708</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>140685</v>
       </c>
@@ -19827,7 +19827,7 @@
         <v>101709</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>141198</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>101710</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>141711</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>101711</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>142224</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>101712</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>142737</v>
       </c>
@@ -20111,7 +20111,7 @@
         <v>101713</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>143250</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>101714</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>143763</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>101715</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>144276</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>101716</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>144789</v>
       </c>
@@ -20395,7 +20395,7 @@
         <v>101717</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>145302</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>101718</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>145815</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>101719</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>146328</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>101720</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>146841</v>
       </c>
@@ -20679,7 +20679,7 @@
         <v>101721</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>147354</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>101722</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>147867</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>101723</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>148380</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>101724</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>148893</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>101725</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>149406</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>101726</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>149919</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>101727</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>150432</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>101728</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>150945</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>101729</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>151458</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>101730</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>151971</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>101731</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>152484</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>101732</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>152997</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>101733</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>153510</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>101734</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>154023</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>101735</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>154536</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>101736</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>155049</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>101737</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>155562</v>
       </c>
@@ -21886,7 +21886,7 @@
         <v>101738</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>156075</v>
       </c>
@@ -21957,7 +21957,7 @@
         <v>101739</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>156588</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>101740</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>157101</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>101741</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>157614</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>101742</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>158127</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>101743</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>158640</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>101744</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>159153</v>
       </c>
@@ -22383,7 +22383,7 @@
         <v>101745</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>159666</v>
       </c>
@@ -22454,7 +22454,7 @@
         <v>101746</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>160179</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>101747</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>160692</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>101748</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>161205</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>101749</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>161718</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>101750</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>162231</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>101751</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>162744</v>
       </c>
@@ -22880,7 +22880,7 @@
         <v>101752</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>163257</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>101753</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>163770</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>101754</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>164283</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>101755</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>164796</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>101756</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>165309</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>101757</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>165822</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>101758</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>166335</v>
       </c>
@@ -23377,7 +23377,7 @@
         <v>101759</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>166848</v>
       </c>
@@ -23448,7 +23448,7 @@
         <v>101800</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>167874</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>101802</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>168387</v>
       </c>
@@ -23590,7 +23590,7 @@
         <v>101803</v>
       </c>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>168900</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>101804</v>
       </c>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>169413</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>101805</v>
       </c>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>169926</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>101806</v>
       </c>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>170439</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>101807</v>
       </c>
     </row>
-    <row r="331" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>170952</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>101808</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>171465</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>101809</v>
       </c>
     </row>
-    <row r="333" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>171978</v>
       </c>
@@ -24087,7 +24087,7 @@
         <v>101810</v>
       </c>
     </row>
-    <row r="334" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>172491</v>
       </c>
@@ -24158,7 +24158,7 @@
         <v>101811</v>
       </c>
     </row>
-    <row r="335" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>173004</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>101812</v>
       </c>
     </row>
-    <row r="336" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>173517</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>101813</v>
       </c>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>174030</v>
       </c>
@@ -24371,7 +24371,7 @@
         <v>101814</v>
       </c>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>174543</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>101815</v>
       </c>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>175056</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>101816</v>
       </c>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>175569</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>101817</v>
       </c>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>176082</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>101818</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>176595</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>101819</v>
       </c>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>177108</v>
       </c>
@@ -24797,7 +24797,7 @@
         <v>101820</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>177621</v>
       </c>
@@ -24868,7 +24868,7 @@
         <v>101821</v>
       </c>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>178134</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>101822</v>
       </c>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>178647</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>101823</v>
       </c>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>179160</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>101824</v>
       </c>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>179673</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>101825</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>180186</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>101826</v>
       </c>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>180699</v>
       </c>
@@ -25294,7 +25294,7 @@
         <v>101827</v>
       </c>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>181212</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>101828</v>
       </c>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>181725</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>101829</v>
       </c>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>182238</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>101830</v>
       </c>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>182751</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>101831</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>183264</v>
       </c>
@@ -25649,7 +25649,7 @@
         <v>101832</v>
       </c>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>183777</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>101833</v>
       </c>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>184290</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>101834</v>
       </c>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>184803</v>
       </c>
@@ -25862,7 +25862,7 @@
         <v>101835</v>
       </c>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>185316</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>101836</v>
       </c>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>185829</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>101837</v>
       </c>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>186342</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>101838</v>
       </c>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>186855</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>101839</v>
       </c>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>187368</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>101840</v>
       </c>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>187881</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>101841</v>
       </c>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>188394</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>101842</v>
       </c>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>188907</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>101843</v>
       </c>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>189420</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>101844</v>
       </c>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>189933</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>101845</v>
       </c>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>190446</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>101846</v>
       </c>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>190959</v>
       </c>
@@ -26714,7 +26714,7 @@
         <v>101847</v>
       </c>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>191472</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>101848</v>
       </c>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>191985</v>
       </c>
@@ -26856,7 +26856,7 @@
         <v>101849</v>
       </c>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>192498</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>101850</v>
       </c>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>193011</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>101851</v>
       </c>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>193524</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>101852</v>
       </c>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>194037</v>
       </c>
@@ -27140,7 +27140,7 @@
         <v>101853</v>
       </c>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>194550</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>101854</v>
       </c>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>195063</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>101855</v>
       </c>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>195576</v>
       </c>
@@ -27353,7 +27353,7 @@
         <v>101856</v>
       </c>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>196089</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>101857</v>
       </c>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>196602</v>
       </c>
@@ -27495,7 +27495,7 @@
         <v>101858</v>
       </c>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>197115</v>
       </c>
@@ -27566,7 +27566,7 @@
         <v>101859</v>
       </c>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>197628</v>
       </c>
@@ -27637,7 +27637,7 @@
         <v>101900</v>
       </c>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>198141</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>101901</v>
       </c>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>198654</v>
       </c>
@@ -27779,7 +27779,7 @@
         <v>101902</v>
       </c>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>199167</v>
       </c>
@@ -27850,7 +27850,7 @@
         <v>101903</v>
       </c>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>199680</v>
       </c>
@@ -27921,7 +27921,7 @@
         <v>101904</v>
       </c>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>200193</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>101905</v>
       </c>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>200706</v>
       </c>
@@ -28063,7 +28063,7 @@
         <v>101906</v>
       </c>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>201219</v>
       </c>
@@ -28134,7 +28134,7 @@
         <v>101907</v>
       </c>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>201732</v>
       </c>
@@ -28205,7 +28205,7 @@
         <v>101908</v>
       </c>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>202245</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>101909</v>
       </c>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>202758</v>
       </c>
@@ -28347,7 +28347,7 @@
         <v>101910</v>
       </c>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>203271</v>
       </c>
@@ -28418,7 +28418,7 @@
         <v>101911</v>
       </c>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>203784</v>
       </c>
@@ -28489,7 +28489,7 @@
         <v>101912</v>
       </c>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>204297</v>
       </c>
@@ -28560,7 +28560,7 @@
         <v>101913</v>
       </c>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>204810</v>
       </c>
@@ -28631,7 +28631,7 @@
         <v>101914</v>
       </c>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>205323</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>101915</v>
       </c>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>205836</v>
       </c>
@@ -28773,7 +28773,7 @@
         <v>101916</v>
       </c>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>206349</v>
       </c>
@@ -28844,7 +28844,7 @@
         <v>101917</v>
       </c>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>206862</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>101918</v>
       </c>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>207375</v>
       </c>
@@ -28986,7 +28986,7 @@
         <v>101919</v>
       </c>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>207888</v>
       </c>
@@ -29057,7 +29057,7 @@
         <v>101920</v>
       </c>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>208401</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>101921</v>
       </c>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>208914</v>
       </c>
@@ -29199,7 +29199,7 @@
         <v>101922</v>
       </c>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>209427</v>
       </c>
@@ -29270,7 +29270,7 @@
         <v>101923</v>
       </c>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>209940</v>
       </c>
@@ -29341,7 +29341,7 @@
         <v>101924</v>
       </c>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>210453</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>101925</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>210966</v>
       </c>
@@ -29483,7 +29483,7 @@
         <v>101926</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>211479</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>101927</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>211992</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>101928</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>212505</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>101929</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>213018</v>
       </c>
@@ -29767,7 +29767,7 @@
         <v>101930</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>213531</v>
       </c>
@@ -29838,7 +29838,7 @@
         <v>101931</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>214044</v>
       </c>
@@ -29909,7 +29909,7 @@
         <v>101932</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>214557</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>101933</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>215070</v>
       </c>
@@ -30051,7 +30051,7 @@
         <v>101934</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>215583</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>101935</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>216096</v>
       </c>
@@ -30193,7 +30193,7 @@
         <v>101936</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>216609</v>
       </c>
@@ -30264,7 +30264,7 @@
         <v>101937</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>217122</v>
       </c>
@@ -30335,7 +30335,7 @@
         <v>101938</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>217635</v>
       </c>
@@ -30406,7 +30406,7 @@
         <v>101939</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>218148</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>101940</v>
       </c>
     </row>
-    <row r="424" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>218661</v>
       </c>
@@ -30548,7 +30548,7 @@
         <v>101941</v>
       </c>
     </row>
-    <row r="425" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>219174</v>
       </c>
@@ -30619,7 +30619,7 @@
         <v>101942</v>
       </c>
     </row>
-    <row r="426" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>219687</v>
       </c>
@@ -30690,7 +30690,7 @@
         <v>101943</v>
       </c>
     </row>
-    <row r="427" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>220200</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>101944</v>
       </c>
     </row>
-    <row r="428" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>220713</v>
       </c>
@@ -30832,7 +30832,7 @@
         <v>101945</v>
       </c>
     </row>
-    <row r="429" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>221226</v>
       </c>
@@ -30903,7 +30903,7 @@
         <v>101946</v>
       </c>
     </row>
-    <row r="430" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>221739</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>101947</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>222252</v>
       </c>
@@ -31045,7 +31045,7 @@
         <v>101948</v>
       </c>
     </row>
-    <row r="432" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>222765</v>
       </c>
@@ -31116,7 +31116,7 @@
         <v>101949</v>
       </c>
     </row>
-    <row r="433" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>223278</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>101950</v>
       </c>
     </row>
-    <row r="434" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>223791</v>
       </c>
@@ -31258,7 +31258,7 @@
         <v>101951</v>
       </c>
     </row>
-    <row r="435" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>224304</v>
       </c>
@@ -31329,7 +31329,7 @@
         <v>101952</v>
       </c>
     </row>
-    <row r="436" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>224817</v>
       </c>
@@ -31400,7 +31400,7 @@
         <v>101953</v>
       </c>
     </row>
-    <row r="437" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>225330</v>
       </c>
@@ -31471,7 +31471,7 @@
         <v>101954</v>
       </c>
     </row>
-    <row r="438" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>225843</v>
       </c>
@@ -31542,7 +31542,7 @@
         <v>101955</v>
       </c>
     </row>
-    <row r="439" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>226356</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>101956</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>226869</v>
       </c>
@@ -31684,7 +31684,7 @@
         <v>101957</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>227382</v>
       </c>
@@ -31755,7 +31755,7 @@
         <v>101958</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>227895</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>101959</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>228408</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>228921</v>
       </c>
@@ -31968,7 +31968,7 @@
         <v>102001</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>229434</v>
       </c>
@@ -32039,7 +32039,7 @@
         <v>102002</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>229947</v>
       </c>
@@ -32110,7 +32110,7 @@
         <v>102003</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>230460</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>102004</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>230973</v>
       </c>
@@ -32252,7 +32252,7 @@
         <v>102005</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>231486</v>
       </c>
@@ -32323,7 +32323,7 @@
         <v>102006</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>231999</v>
       </c>
@@ -32394,7 +32394,7 @@
         <v>102007</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>232512</v>
       </c>
@@ -32465,7 +32465,7 @@
         <v>102008</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>233025</v>
       </c>
@@ -32536,7 +32536,7 @@
         <v>102009</v>
       </c>
     </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>233538</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>102010</v>
       </c>
     </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>234051</v>
       </c>
@@ -32678,7 +32678,7 @@
         <v>102011</v>
       </c>
     </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>234564</v>
       </c>
@@ -32749,7 +32749,7 @@
         <v>102011</v>
       </c>
     </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>235077</v>
       </c>
@@ -32820,7 +32820,7 @@
         <v>102013</v>
       </c>
     </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>235590</v>
       </c>
@@ -32891,7 +32891,7 @@
         <v>102013</v>
       </c>
     </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>236103</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>102015</v>
       </c>
     </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>236616</v>
       </c>
@@ -33033,7 +33033,7 @@
         <v>102015</v>
       </c>
     </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>237129</v>
       </c>
@@ -33104,7 +33104,7 @@
         <v>102016</v>
       </c>
     </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>237642</v>
       </c>
@@ -33175,7 +33175,7 @@
         <v>102017</v>
       </c>
     </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>238155</v>
       </c>
@@ -33246,7 +33246,7 @@
         <v>102018</v>
       </c>
     </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>238668</v>
       </c>
@@ -33317,7 +33317,7 @@
         <v>102019</v>
       </c>
     </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>239181</v>
       </c>
@@ -33388,7 +33388,7 @@
         <v>102020</v>
       </c>
     </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>239694</v>
       </c>
@@ -33459,7 +33459,7 @@
         <v>102021</v>
       </c>
     </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>240207</v>
       </c>
@@ -33530,7 +33530,7 @@
         <v>102022</v>
       </c>
     </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>240720</v>
       </c>
@@ -33601,7 +33601,7 @@
         <v>102023</v>
       </c>
     </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>241233</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>102024</v>
       </c>
     </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>241746</v>
       </c>
@@ -33743,7 +33743,7 @@
         <v>102025</v>
       </c>
     </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>242259</v>
       </c>
@@ -33814,7 +33814,7 @@
         <v>102026</v>
       </c>
     </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>242772</v>
       </c>
@@ -33885,7 +33885,7 @@
         <v>102027</v>
       </c>
     </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>243285</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>102028</v>
       </c>
     </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>243798</v>
       </c>
@@ -34027,7 +34027,7 @@
         <v>102029</v>
       </c>
     </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>244311</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>102030</v>
       </c>
     </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>244824</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>102031</v>
       </c>
     </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>245337</v>
       </c>
@@ -34240,7 +34240,7 @@
         <v>102032</v>
       </c>
     </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>245850</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>102033</v>
       </c>
     </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>246363</v>
       </c>
@@ -34382,7 +34382,7 @@
         <v>102034</v>
       </c>
     </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>246876</v>
       </c>
@@ -34453,7 +34453,7 @@
         <v>102035</v>
       </c>
     </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>247389</v>
       </c>
@@ -34524,7 +34524,7 @@
         <v>102036</v>
       </c>
     </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>247902</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>102037</v>
       </c>
     </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>248415</v>
       </c>
@@ -34666,7 +34666,7 @@
         <v>102038</v>
       </c>
     </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>248928</v>
       </c>
@@ -34737,7 +34737,7 @@
         <v>102039</v>
       </c>
     </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>249441</v>
       </c>
@@ -34808,7 +34808,7 @@
         <v>102040</v>
       </c>
     </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>249954</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>102041</v>
       </c>
     </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>250467</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>102042</v>
       </c>
     </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>250980</v>
       </c>
@@ -35021,7 +35021,7 @@
         <v>102043</v>
       </c>
     </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>251493</v>
       </c>
@@ -35092,7 +35092,7 @@
         <v>102044</v>
       </c>
     </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>252006</v>
       </c>
@@ -35163,7 +35163,7 @@
         <v>102045</v>
       </c>
     </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>252519</v>
       </c>
@@ -35234,7 +35234,7 @@
         <v>102046</v>
       </c>
     </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>253032</v>
       </c>
@@ -35305,7 +35305,7 @@
         <v>102047</v>
       </c>
     </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>253545</v>
       </c>
@@ -35376,7 +35376,7 @@
         <v>102048</v>
       </c>
     </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>254058</v>
       </c>
@@ -35447,7 +35447,7 @@
         <v>102049</v>
       </c>
     </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>254571</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>102050</v>
       </c>
     </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>255084</v>
       </c>
@@ -35589,7 +35589,7 @@
         <v>102051</v>
       </c>
     </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>255597</v>
       </c>
@@ -35660,7 +35660,7 @@
         <v>102052</v>
       </c>
     </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>256110</v>
       </c>
@@ -35731,7 +35731,7 @@
         <v>102053</v>
       </c>
     </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>256623</v>
       </c>
@@ -35802,7 +35802,7 @@
         <v>102054</v>
       </c>
     </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>257649</v>
       </c>
@@ -35873,7 +35873,7 @@
         <v>102056</v>
       </c>
     </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>258162</v>
       </c>
@@ -35944,7 +35944,7 @@
         <v>102057</v>
       </c>
     </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>258675</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>102058</v>
       </c>
     </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>259188</v>
       </c>
@@ -36086,7 +36086,7 @@
         <v>102059</v>
       </c>
     </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>259701</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>102100</v>
       </c>
     </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>260214</v>
       </c>
@@ -36228,7 +36228,7 @@
         <v>102101</v>
       </c>
     </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>260727</v>
       </c>
@@ -36299,7 +36299,7 @@
         <v>102102</v>
       </c>
     </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>261240</v>
       </c>
@@ -36370,7 +36370,7 @@
         <v>102103</v>
       </c>
     </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>261753</v>
       </c>
@@ -36441,7 +36441,7 @@
         <v>102104</v>
       </c>
     </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>262266</v>
       </c>
@@ -36512,7 +36512,7 @@
         <v>102105</v>
       </c>
     </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>262779</v>
       </c>
@@ -36583,7 +36583,7 @@
         <v>102106</v>
       </c>
     </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>263292</v>
       </c>
@@ -36654,7 +36654,7 @@
         <v>102107</v>
       </c>
     </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>263805</v>
       </c>
@@ -36725,7 +36725,7 @@
         <v>102108</v>
       </c>
     </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>264318</v>
       </c>
@@ -36796,7 +36796,7 @@
         <v>102109</v>
       </c>
     </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>264831</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>102110</v>
       </c>
     </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>265344</v>
       </c>
@@ -36938,7 +36938,7 @@
         <v>102111</v>
       </c>
     </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>265857</v>
       </c>
@@ -37009,7 +37009,7 @@
         <v>102112</v>
       </c>
     </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>266370</v>
       </c>
@@ -37080,7 +37080,7 @@
         <v>102113</v>
       </c>
     </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>266883</v>
       </c>
@@ -37151,7 +37151,7 @@
         <v>102114</v>
       </c>
     </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>267396</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>102115</v>
       </c>
     </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>267909</v>
       </c>
@@ -37293,7 +37293,7 @@
         <v>102116</v>
       </c>
     </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>268422</v>
       </c>
@@ -37364,7 +37364,7 @@
         <v>102117</v>
       </c>
     </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>268935</v>
       </c>
@@ -37435,7 +37435,7 @@
         <v>102118</v>
       </c>
     </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>269448</v>
       </c>
@@ -37506,7 +37506,7 @@
         <v>102119</v>
       </c>
     </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>269961</v>
       </c>
@@ -37577,7 +37577,7 @@
         <v>102120</v>
       </c>
     </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>270474</v>
       </c>
@@ -37648,7 +37648,7 @@
         <v>102121</v>
       </c>
     </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>270987</v>
       </c>
@@ -37719,7 +37719,7 @@
         <v>102122</v>
       </c>
     </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>271500</v>
       </c>
@@ -37790,7 +37790,7 @@
         <v>102123</v>
       </c>
     </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>272013</v>
       </c>
@@ -37861,7 +37861,7 @@
         <v>102124</v>
       </c>
     </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>272526</v>
       </c>
@@ -37932,7 +37932,7 @@
         <v>102125</v>
       </c>
     </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>273039</v>
       </c>
@@ -38003,7 +38003,7 @@
         <v>102126</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>273552</v>
       </c>
@@ -38074,7 +38074,7 @@
         <v>102127</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>274065</v>
       </c>
@@ -38145,7 +38145,7 @@
         <v>102128</v>
       </c>
     </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>274578</v>
       </c>
@@ -38216,7 +38216,7 @@
         <v>102129</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>275091</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>102130</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>275604</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>102131</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>276117</v>
       </c>
@@ -38429,7 +38429,7 @@
         <v>102132</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>276630</v>
       </c>
@@ -38500,7 +38500,7 @@
         <v>102133</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>277143</v>
       </c>
@@ -38571,7 +38571,7 @@
         <v>102134</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>277656</v>
       </c>
@@ -38642,7 +38642,7 @@
         <v>102135</v>
       </c>
     </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>278169</v>
       </c>
@@ -38713,7 +38713,7 @@
         <v>102136</v>
       </c>
     </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>278682</v>
       </c>
@@ -38784,7 +38784,7 @@
         <v>102137</v>
       </c>
     </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>279195</v>
       </c>
@@ -38855,7 +38855,7 @@
         <v>102138</v>
       </c>
     </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>279708</v>
       </c>
@@ -38926,7 +38926,7 @@
         <v>102139</v>
       </c>
     </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>280221</v>
       </c>
@@ -38997,7 +38997,7 @@
         <v>102140</v>
       </c>
     </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>280734</v>
       </c>
@@ -39068,7 +39068,7 @@
         <v>102141</v>
       </c>
     </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>281247</v>
       </c>
@@ -39139,7 +39139,7 @@
         <v>102142</v>
       </c>
     </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>281760</v>
       </c>
@@ -39210,7 +39210,7 @@
         <v>102143</v>
       </c>
     </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>282273</v>
       </c>
@@ -39281,7 +39281,7 @@
         <v>102144</v>
       </c>
     </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>282786</v>
       </c>
@@ -39352,7 +39352,7 @@
         <v>102145</v>
       </c>
     </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>283299</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>102146</v>
       </c>
     </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>283812</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>102147</v>
       </c>
     </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>284325</v>
       </c>
@@ -39565,7 +39565,7 @@
         <v>102148</v>
       </c>
     </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>284838</v>
       </c>
@@ -39636,7 +39636,7 @@
         <v>102149</v>
       </c>
     </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>285351</v>
       </c>
@@ -39707,7 +39707,7 @@
         <v>102150</v>
       </c>
     </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>285864</v>
       </c>
@@ -39778,7 +39778,7 @@
         <v>102151</v>
       </c>
     </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>286377</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>102152</v>
       </c>
     </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>286890</v>
       </c>
@@ -39920,7 +39920,7 @@
         <v>102153</v>
       </c>
     </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>287403</v>
       </c>
@@ -39991,7 +39991,7 @@
         <v>102154</v>
       </c>
     </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>287916</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>102155</v>
       </c>
     </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>288429</v>
       </c>
@@ -40133,7 +40133,7 @@
         <v>102156</v>
       </c>
     </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>288942</v>
       </c>
@@ -40204,7 +40204,7 @@
         <v>102157</v>
       </c>
     </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>289455</v>
       </c>
@@ -40275,7 +40275,7 @@
         <v>102158</v>
       </c>
     </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>289968</v>
       </c>
@@ -40346,7 +40346,7 @@
         <v>102159</v>
       </c>
     </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>290481</v>
       </c>
@@ -40417,7 +40417,7 @@
         <v>102200</v>
       </c>
     </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>290994</v>
       </c>
@@ -40488,7 +40488,7 @@
         <v>102201</v>
       </c>
     </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>291507</v>
       </c>
@@ -40559,7 +40559,7 @@
         <v>102202</v>
       </c>
     </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>292020</v>
       </c>
@@ -40630,7 +40630,7 @@
         <v>102203</v>
       </c>
     </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>292533</v>
       </c>
@@ -40701,7 +40701,7 @@
         <v>102204</v>
       </c>
     </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>293046</v>
       </c>
@@ -40772,7 +40772,7 @@
         <v>102205</v>
       </c>
     </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>293559</v>
       </c>
@@ -40843,7 +40843,7 @@
         <v>102206</v>
       </c>
     </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>294072</v>
       </c>
@@ -40914,7 +40914,7 @@
         <v>102207</v>
       </c>
     </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>294585</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>102208</v>
       </c>
     </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>295098</v>
       </c>
@@ -41056,7 +41056,7 @@
         <v>102209</v>
       </c>
     </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>295611</v>
       </c>
@@ -41127,7 +41127,7 @@
         <v>102210</v>
       </c>
     </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>296124</v>
       </c>
@@ -41198,7 +41198,7 @@
         <v>102211</v>
       </c>
     </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>296637</v>
       </c>
@@ -41269,7 +41269,7 @@
         <v>102212</v>
       </c>
     </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>297150</v>
       </c>
@@ -41340,7 +41340,7 @@
         <v>102213</v>
       </c>
     </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>297663</v>
       </c>
@@ -41411,7 +41411,7 @@
         <v>102214</v>
       </c>
     </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>298176</v>
       </c>
@@ -41482,7 +41482,7 @@
         <v>102215</v>
       </c>
     </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>298689</v>
       </c>
@@ -41553,7 +41553,7 @@
         <v>102216</v>
       </c>
     </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>299202</v>
       </c>
@@ -41624,7 +41624,7 @@
         <v>102217</v>
       </c>
     </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>299715</v>
       </c>
@@ -41695,7 +41695,7 @@
         <v>102218</v>
       </c>
     </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>300228</v>
       </c>
@@ -41766,7 +41766,7 @@
         <v>102219</v>
       </c>
     </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>300741</v>
       </c>
@@ -41837,7 +41837,7 @@
         <v>102220</v>
       </c>
     </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>301254</v>
       </c>
@@ -41908,7 +41908,7 @@
         <v>102221</v>
       </c>
     </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>301767</v>
       </c>
@@ -41979,7 +41979,7 @@
         <v>102222</v>
       </c>
     </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>302280</v>
       </c>
@@ -42050,7 +42050,7 @@
         <v>102223</v>
       </c>
     </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>302793</v>
       </c>
@@ -42121,7 +42121,7 @@
         <v>102224</v>
       </c>
     </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>303306</v>
       </c>
@@ -42192,7 +42192,7 @@
         <v>102225</v>
       </c>
     </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>303819</v>
       </c>
@@ -42263,7 +42263,7 @@
         <v>102226</v>
       </c>
     </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>304332</v>
       </c>
@@ -42334,7 +42334,7 @@
         <v>102227</v>
       </c>
     </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>304845</v>
       </c>
@@ -42405,7 +42405,7 @@
         <v>102228</v>
       </c>
     </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>305358</v>
       </c>
@@ -42476,7 +42476,7 @@
         <v>102229</v>
       </c>
     </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>305871</v>
       </c>
@@ -42547,7 +42547,7 @@
         <v>102230</v>
       </c>
     </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>306384</v>
       </c>
@@ -42618,7 +42618,7 @@
         <v>102231</v>
       </c>
     </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>306897</v>
       </c>
@@ -42689,7 +42689,7 @@
         <v>102232</v>
       </c>
     </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>307410</v>
       </c>
@@ -42760,7 +42760,7 @@
         <v>102233</v>
       </c>
     </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>307923</v>
       </c>
@@ -42831,7 +42831,7 @@
         <v>102234</v>
       </c>
     </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>308436</v>
       </c>
@@ -42902,7 +42902,7 @@
         <v>102235</v>
       </c>
     </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>308949</v>
       </c>
@@ -42973,7 +42973,7 @@
         <v>102236</v>
       </c>
     </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>309462</v>
       </c>
@@ -43044,7 +43044,7 @@
         <v>102237</v>
       </c>
     </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>309975</v>
       </c>
@@ -43115,7 +43115,7 @@
         <v>102238</v>
       </c>
     </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>310488</v>
       </c>
@@ -43186,7 +43186,7 @@
         <v>102239</v>
       </c>
     </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>311001</v>
       </c>
@@ -43257,7 +43257,7 @@
         <v>102240</v>
       </c>
     </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>311514</v>
       </c>
@@ -43328,7 +43328,7 @@
         <v>102241</v>
       </c>
     </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>312027</v>
       </c>
@@ -43399,7 +43399,7 @@
         <v>102242</v>
       </c>
     </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>312540</v>
       </c>
@@ -43470,7 +43470,7 @@
         <v>102243</v>
       </c>
     </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>313053</v>
       </c>
@@ -43541,7 +43541,7 @@
         <v>102244</v>
       </c>
     </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>313566</v>
       </c>
@@ -43612,7 +43612,7 @@
         <v>102245</v>
       </c>
     </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>314079</v>
       </c>
@@ -43683,7 +43683,7 @@
         <v>102246</v>
       </c>
     </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>314592</v>
       </c>
@@ -43754,7 +43754,7 @@
         <v>102247</v>
       </c>
     </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>315105</v>
       </c>
@@ -43825,7 +43825,7 @@
         <v>102248</v>
       </c>
     </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>315618</v>
       </c>
@@ -43896,7 +43896,7 @@
         <v>102249</v>
       </c>
     </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>316131</v>
       </c>
@@ -43967,7 +43967,7 @@
         <v>102250</v>
       </c>
     </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>316644</v>
       </c>
@@ -44038,7 +44038,7 @@
         <v>102251</v>
       </c>
     </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>317157</v>
       </c>
@@ -44109,7 +44109,7 @@
         <v>102252</v>
       </c>
     </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>317670</v>
       </c>
@@ -44180,7 +44180,7 @@
         <v>102253</v>
       </c>
     </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>318183</v>
       </c>
@@ -44251,7 +44251,7 @@
         <v>102254</v>
       </c>
     </row>
-    <row r="618" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>318696</v>
       </c>
@@ -44322,7 +44322,7 @@
         <v>102255</v>
       </c>
     </row>
-    <row r="619" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>319209</v>
       </c>
@@ -44393,7 +44393,7 @@
         <v>102256</v>
       </c>
     </row>
-    <row r="620" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>319722</v>
       </c>
@@ -44464,7 +44464,7 @@
         <v>102257</v>
       </c>
     </row>
-    <row r="621" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>320235</v>
       </c>
@@ -44535,7 +44535,7 @@
         <v>102258</v>
       </c>
     </row>
-    <row r="622" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>320748</v>
       </c>
@@ -44606,7 +44606,7 @@
         <v>102259</v>
       </c>
     </row>
-    <row r="623" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>321261</v>
       </c>
@@ -44677,7 +44677,7 @@
         <v>102300</v>
       </c>
     </row>
-    <row r="624" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>321774</v>
       </c>
@@ -44748,7 +44748,7 @@
         <v>102301</v>
       </c>
     </row>
-    <row r="625" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>322287</v>
       </c>
@@ -44819,7 +44819,7 @@
         <v>102302</v>
       </c>
     </row>
-    <row r="626" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>322800</v>
       </c>
@@ -44890,7 +44890,7 @@
         <v>102303</v>
       </c>
     </row>
-    <row r="627" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>323313</v>
       </c>
@@ -44961,7 +44961,7 @@
         <v>102304</v>
       </c>
     </row>
-    <row r="628" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>323826</v>
       </c>
@@ -45032,7 +45032,7 @@
         <v>102305</v>
       </c>
     </row>
-    <row r="629" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>324339</v>
       </c>
@@ -45103,7 +45103,7 @@
         <v>102306</v>
       </c>
     </row>
-    <row r="630" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>324852</v>
       </c>
@@ -45174,7 +45174,7 @@
         <v>102307</v>
       </c>
     </row>
-    <row r="631" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>325365</v>
       </c>
@@ -45245,7 +45245,7 @@
         <v>102308</v>
       </c>
     </row>
-    <row r="632" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>325878</v>
       </c>
@@ -45316,7 +45316,7 @@
         <v>102309</v>
       </c>
     </row>
-    <row r="633" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>326391</v>
       </c>
@@ -45387,7 +45387,7 @@
         <v>102310</v>
       </c>
     </row>
-    <row r="634" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>326904</v>
       </c>
@@ -45458,7 +45458,7 @@
         <v>102311</v>
       </c>
     </row>
-    <row r="635" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>327417</v>
       </c>
@@ -45529,7 +45529,7 @@
         <v>102312</v>
       </c>
     </row>
-    <row r="636" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>327930</v>
       </c>
@@ -45600,7 +45600,7 @@
         <v>102313</v>
       </c>
     </row>
-    <row r="637" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>328443</v>
       </c>
@@ -45671,7 +45671,7 @@
         <v>102314</v>
       </c>
     </row>
-    <row r="638" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>328956</v>
       </c>
@@ -45742,7 +45742,7 @@
         <v>102315</v>
       </c>
     </row>
-    <row r="639" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>329469</v>
       </c>
@@ -45813,7 +45813,7 @@
         <v>102316</v>
       </c>
     </row>
-    <row r="640" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>329982</v>
       </c>
@@ -45884,7 +45884,7 @@
         <v>102317</v>
       </c>
     </row>
-    <row r="641" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>330495</v>
       </c>
@@ -45955,7 +45955,7 @@
         <v>102318</v>
       </c>
     </row>
-    <row r="642" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>331008</v>
       </c>
@@ -46026,7 +46026,7 @@
         <v>102319</v>
       </c>
     </row>
-    <row r="643" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>331521</v>
       </c>
@@ -46097,7 +46097,7 @@
         <v>102320</v>
       </c>
     </row>
-    <row r="644" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>332034</v>
       </c>
@@ -46168,7 +46168,7 @@
         <v>102321</v>
       </c>
     </row>
-    <row r="645" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>332547</v>
       </c>
@@ -46239,7 +46239,7 @@
         <v>102322</v>
       </c>
     </row>
-    <row r="646" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>333060</v>
       </c>
@@ -46310,7 +46310,7 @@
         <v>102323</v>
       </c>
     </row>
-    <row r="647" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>333573</v>
       </c>
@@ -46381,7 +46381,7 @@
         <v>102324</v>
       </c>
     </row>
-    <row r="648" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>334086</v>
       </c>
@@ -46452,7 +46452,7 @@
         <v>102325</v>
       </c>
     </row>
-    <row r="649" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>334599</v>
       </c>
@@ -46523,7 +46523,7 @@
         <v>102326</v>
       </c>
     </row>
-    <row r="650" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>335112</v>
       </c>
@@ -46594,7 +46594,7 @@
         <v>102327</v>
       </c>
     </row>
-    <row r="651" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>335625</v>
       </c>
@@ -46665,7 +46665,7 @@
         <v>102328</v>
       </c>
     </row>
-    <row r="652" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>336138</v>
       </c>
@@ -46736,7 +46736,7 @@
         <v>102329</v>
       </c>
     </row>
-    <row r="653" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>336651</v>
       </c>
@@ -46807,7 +46807,7 @@
         <v>102330</v>
       </c>
     </row>
-    <row r="654" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>337164</v>
       </c>
@@ -46878,7 +46878,7 @@
         <v>102331</v>
       </c>
     </row>
-    <row r="655" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>337677</v>
       </c>
@@ -46949,7 +46949,7 @@
         <v>102332</v>
       </c>
     </row>
-    <row r="656" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>338190</v>
       </c>
@@ -47020,7 +47020,7 @@
         <v>102333</v>
       </c>
     </row>
-    <row r="657" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>338703</v>
       </c>
@@ -47091,7 +47091,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="658" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>339216</v>
       </c>
@@ -47162,7 +47162,7 @@
         <v>102334</v>
       </c>
     </row>
-    <row r="659" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>339729</v>
       </c>
@@ -47233,7 +47233,7 @@
         <v>102335</v>
       </c>
     </row>
-    <row r="660" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>340242</v>
       </c>
@@ -47304,7 +47304,7 @@
         <v>102337</v>
       </c>
     </row>
-    <row r="661" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>340755</v>
       </c>
@@ -47375,7 +47375,7 @@
         <v>102338</v>
       </c>
     </row>
-    <row r="662" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>341268</v>
       </c>
@@ -47446,7 +47446,7 @@
         <v>102338</v>
       </c>
     </row>
-    <row r="663" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>341781</v>
       </c>
@@ -47517,7 +47517,7 @@
         <v>102340</v>
       </c>
     </row>
-    <row r="664" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>342294</v>
       </c>
@@ -47588,7 +47588,7 @@
         <v>102340</v>
       </c>
     </row>
-    <row r="665" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>342807</v>
       </c>
@@ -47659,7 +47659,7 @@
         <v>102341</v>
       </c>
     </row>
-    <row r="666" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>343320</v>
       </c>
@@ -47730,7 +47730,7 @@
         <v>102342</v>
       </c>
     </row>
-    <row r="667" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>343833</v>
       </c>
@@ -47801,7 +47801,7 @@
         <v>102343</v>
       </c>
     </row>
-    <row r="668" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>344346</v>
       </c>
@@ -47872,7 +47872,7 @@
         <v>102344</v>
       </c>
     </row>
-    <row r="669" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>344859</v>
       </c>
@@ -47943,7 +47943,7 @@
         <v>102345</v>
       </c>
     </row>
-    <row r="670" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>345372</v>
       </c>
@@ -48014,7 +48014,7 @@
         <v>102346</v>
       </c>
     </row>
-    <row r="671" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>345885</v>
       </c>
@@ -48085,7 +48085,7 @@
         <v>102347</v>
       </c>
     </row>
-    <row r="672" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>346398</v>
       </c>
@@ -48156,7 +48156,7 @@
         <v>102348</v>
       </c>
     </row>
-    <row r="673" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>346911</v>
       </c>
@@ -48227,7 +48227,7 @@
         <v>102349</v>
       </c>
     </row>
-    <row r="674" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>347424</v>
       </c>
@@ -48298,7 +48298,7 @@
         <v>102350</v>
       </c>
     </row>
-    <row r="675" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>347937</v>
       </c>
@@ -48369,7 +48369,7 @@
         <v>102351</v>
       </c>
     </row>
-    <row r="676" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>348450</v>
       </c>
@@ -48440,7 +48440,7 @@
         <v>102352</v>
       </c>
     </row>
-    <row r="677" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>348963</v>
       </c>
@@ -48511,7 +48511,7 @@
         <v>102353</v>
       </c>
     </row>
-    <row r="678" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>349476</v>
       </c>
@@ -48582,7 +48582,7 @@
         <v>102354</v>
       </c>
     </row>
-    <row r="679" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>349989</v>
       </c>
@@ -48653,7 +48653,7 @@
         <v>102355</v>
       </c>
     </row>
-    <row r="680" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>350502</v>
       </c>
@@ -48724,7 +48724,7 @@
         <v>102356</v>
       </c>
     </row>
-    <row r="681" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>351015</v>
       </c>
@@ -48795,7 +48795,7 @@
         <v>102357</v>
       </c>
     </row>
-    <row r="682" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>351528</v>
       </c>
@@ -48866,7 +48866,7 @@
         <v>102358</v>
       </c>
     </row>
-    <row r="683" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>352041</v>
       </c>
@@ -48937,7 +48937,7 @@
         <v>102359</v>
       </c>
     </row>
-    <row r="684" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>352554</v>
       </c>
@@ -49008,7 +49008,7 @@
         <v>102400</v>
       </c>
     </row>
-    <row r="685" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>353067</v>
       </c>
@@ -49079,7 +49079,7 @@
         <v>102401</v>
       </c>
     </row>
-    <row r="686" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>353580</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>102402</v>
       </c>
     </row>
-    <row r="687" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>354093</v>
       </c>
@@ -49221,7 +49221,7 @@
         <v>102403</v>
       </c>
     </row>
-    <row r="688" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>354606</v>
       </c>
@@ -49292,7 +49292,7 @@
         <v>102404</v>
       </c>
     </row>
-    <row r="689" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>355119</v>
       </c>
@@ -49363,7 +49363,7 @@
         <v>102405</v>
       </c>
     </row>
-    <row r="690" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>355632</v>
       </c>
@@ -49434,7 +49434,7 @@
         <v>102406</v>
       </c>
     </row>
-    <row r="691" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>356145</v>
       </c>
@@ -49505,7 +49505,7 @@
         <v>102407</v>
       </c>
     </row>
-    <row r="692" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>356658</v>
       </c>
@@ -49576,7 +49576,7 @@
         <v>102408</v>
       </c>
     </row>
-    <row r="693" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>357171</v>
       </c>
@@ -49647,7 +49647,7 @@
         <v>102409</v>
       </c>
     </row>
-    <row r="694" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>357684</v>
       </c>
@@ -49718,7 +49718,7 @@
         <v>102410</v>
       </c>
     </row>
-    <row r="695" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>358197</v>
       </c>
@@ -49789,7 +49789,7 @@
         <v>102411</v>
       </c>
     </row>
-    <row r="696" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>358710</v>
       </c>
@@ -49860,7 +49860,7 @@
         <v>102412</v>
       </c>
     </row>
-    <row r="697" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>359223</v>
       </c>
@@ -49931,7 +49931,7 @@
         <v>102413</v>
       </c>
     </row>
-    <row r="698" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>359736</v>
       </c>
@@ -50002,7 +50002,7 @@
         <v>102414</v>
       </c>
     </row>
-    <row r="699" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>360249</v>
       </c>
@@ -50073,7 +50073,7 @@
         <v>102415</v>
       </c>
     </row>
-    <row r="700" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>360762</v>
       </c>
@@ -50144,7 +50144,7 @@
         <v>102416</v>
       </c>
     </row>
-    <row r="701" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>361275</v>
       </c>
@@ -50215,7 +50215,7 @@
         <v>102417</v>
       </c>
     </row>
-    <row r="702" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>361788</v>
       </c>
@@ -50286,7 +50286,7 @@
         <v>102418</v>
       </c>
     </row>
-    <row r="703" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>362301</v>
       </c>
@@ -50357,7 +50357,7 @@
         <v>102419</v>
       </c>
     </row>
-    <row r="704" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>362814</v>
       </c>
@@ -50428,7 +50428,7 @@
         <v>102420</v>
       </c>
     </row>
-    <row r="705" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>363327</v>
       </c>
@@ -50499,7 +50499,7 @@
         <v>102421</v>
       </c>
     </row>
-    <row r="706" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>363840</v>
       </c>
@@ -50570,7 +50570,7 @@
         <v>102422</v>
       </c>
     </row>
-    <row r="707" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>364353</v>
       </c>
@@ -50641,7 +50641,7 @@
         <v>102423</v>
       </c>
     </row>
-    <row r="708" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>364866</v>
       </c>
@@ -50712,7 +50712,7 @@
         <v>102424</v>
       </c>
     </row>
-    <row r="709" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>365379</v>
       </c>
@@ -50783,7 +50783,7 @@
         <v>102425</v>
       </c>
     </row>
-    <row r="710" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>365892</v>
       </c>
@@ -50854,7 +50854,7 @@
         <v>102426</v>
       </c>
     </row>
-    <row r="711" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>366405</v>
       </c>
@@ -50925,7 +50925,7 @@
         <v>102427</v>
       </c>
     </row>
-    <row r="712" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>366918</v>
       </c>
@@ -50996,7 +50996,7 @@
         <v>102428</v>
       </c>
     </row>
-    <row r="713" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>367431</v>
       </c>
@@ -51067,7 +51067,7 @@
         <v>102429</v>
       </c>
     </row>
-    <row r="714" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>367944</v>
       </c>
@@ -51138,7 +51138,7 @@
         <v>102430</v>
       </c>
     </row>
-    <row r="715" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>368457</v>
       </c>
@@ -51209,7 +51209,7 @@
         <v>102431</v>
       </c>
     </row>
-    <row r="716" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>368970</v>
       </c>
@@ -51280,7 +51280,7 @@
         <v>102432</v>
       </c>
     </row>
-    <row r="717" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>369483</v>
       </c>
@@ -51351,7 +51351,7 @@
         <v>102433</v>
       </c>
     </row>
-    <row r="718" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>369996</v>
       </c>
@@ -51422,7 +51422,7 @@
         <v>102434</v>
       </c>
     </row>
-    <row r="719" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>370509</v>
       </c>
@@ -51493,7 +51493,7 @@
         <v>102435</v>
       </c>
     </row>
-    <row r="720" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>371022</v>
       </c>
@@ -51564,7 +51564,7 @@
         <v>102436</v>
       </c>
     </row>
-    <row r="721" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>371535</v>
       </c>
@@ -51635,7 +51635,7 @@
         <v>102437</v>
       </c>
     </row>
-    <row r="722" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>372048</v>
       </c>
@@ -51706,7 +51706,7 @@
         <v>102438</v>
       </c>
     </row>
-    <row r="723" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>372561</v>
       </c>
@@ -51777,7 +51777,7 @@
         <v>102439</v>
       </c>
     </row>
-    <row r="724" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>373074</v>
       </c>
@@ -51848,7 +51848,7 @@
         <v>102440</v>
       </c>
     </row>
-    <row r="725" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>373587</v>
       </c>
@@ -51919,7 +51919,7 @@
         <v>102441</v>
       </c>
     </row>
-    <row r="726" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>374100</v>
       </c>
@@ -51990,7 +51990,7 @@
         <v>102442</v>
       </c>
     </row>
-    <row r="727" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>374613</v>
       </c>
@@ -52061,7 +52061,7 @@
         <v>102443</v>
       </c>
     </row>
-    <row r="728" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>375126</v>
       </c>
@@ -52132,7 +52132,7 @@
         <v>102444</v>
       </c>
     </row>
-    <row r="729" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>375639</v>
       </c>
@@ -52203,7 +52203,7 @@
         <v>102445</v>
       </c>
     </row>
-    <row r="730" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>376152</v>
       </c>
@@ -52274,7 +52274,7 @@
         <v>102446</v>
       </c>
     </row>
-    <row r="731" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>376665</v>
       </c>
@@ -52345,7 +52345,7 @@
         <v>102447</v>
       </c>
     </row>
-    <row r="732" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>377178</v>
       </c>
@@ -52416,7 +52416,7 @@
         <v>102448</v>
       </c>
     </row>
-    <row r="733" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>377691</v>
       </c>
@@ -52487,7 +52487,7 @@
         <v>102449</v>
       </c>
     </row>
-    <row r="734" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>378204</v>
       </c>
@@ -52558,7 +52558,7 @@
         <v>102450</v>
       </c>
     </row>
-    <row r="735" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>378717</v>
       </c>
@@ -52629,7 +52629,7 @@
         <v>102451</v>
       </c>
     </row>
-    <row r="736" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>379230</v>
       </c>
@@ -52700,7 +52700,7 @@
         <v>102452</v>
       </c>
     </row>
-    <row r="737" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>379743</v>
       </c>
@@ -52771,7 +52771,7 @@
         <v>102453</v>
       </c>
     </row>
-    <row r="738" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>380256</v>
       </c>
@@ -52842,7 +52842,7 @@
         <v>102454</v>
       </c>
     </row>
-    <row r="739" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>380769</v>
       </c>
@@ -52913,7 +52913,7 @@
         <v>102455</v>
       </c>
     </row>
-    <row r="740" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>381282</v>
       </c>
@@ -52984,7 +52984,7 @@
         <v>102456</v>
       </c>
     </row>
-    <row r="741" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>381795</v>
       </c>
@@ -53055,7 +53055,7 @@
         <v>102457</v>
       </c>
     </row>
-    <row r="742" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>382308</v>
       </c>
@@ -53126,7 +53126,7 @@
         <v>102458</v>
       </c>
     </row>
-    <row r="743" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>382821</v>
       </c>
@@ -53197,7 +53197,7 @@
         <v>102459</v>
       </c>
     </row>
-    <row r="744" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>383334</v>
       </c>
@@ -53268,7 +53268,7 @@
         <v>102500</v>
       </c>
     </row>
-    <row r="745" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>383847</v>
       </c>
@@ -53339,7 +53339,7 @@
         <v>102501</v>
       </c>
     </row>
-    <row r="746" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>384360</v>
       </c>
@@ -53410,7 +53410,7 @@
         <v>102502</v>
       </c>
     </row>
-    <row r="747" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>384873</v>
       </c>
@@ -53481,7 +53481,7 @@
         <v>102503</v>
       </c>
     </row>
-    <row r="748" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>385386</v>
       </c>
@@ -53552,7 +53552,7 @@
         <v>102504</v>
       </c>
     </row>
-    <row r="749" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>385899</v>
       </c>
@@ -53623,7 +53623,7 @@
         <v>102505</v>
       </c>
     </row>
-    <row r="750" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>386412</v>
       </c>
@@ -53694,7 +53694,7 @@
         <v>102506</v>
       </c>
     </row>
-    <row r="751" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>386925</v>
       </c>
@@ -53765,7 +53765,7 @@
         <v>102507</v>
       </c>
     </row>
-    <row r="752" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>387438</v>
       </c>
@@ -53836,7 +53836,7 @@
         <v>102508</v>
       </c>
     </row>
-    <row r="753" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>387951</v>
       </c>
@@ -53907,7 +53907,7 @@
         <v>102509</v>
       </c>
     </row>
-    <row r="754" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>388464</v>
       </c>
@@ -53978,7 +53978,7 @@
         <v>102510</v>
       </c>
     </row>
-    <row r="755" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>388977</v>
       </c>
@@ -54049,7 +54049,7 @@
         <v>102511</v>
       </c>
     </row>
-    <row r="756" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>389490</v>
       </c>
@@ -54120,7 +54120,7 @@
         <v>102512</v>
       </c>
     </row>
-    <row r="757" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>390003</v>
       </c>
@@ -54191,7 +54191,7 @@
         <v>102513</v>
       </c>
     </row>
-    <row r="758" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>390516</v>
       </c>
@@ -54262,7 +54262,7 @@
         <v>102514</v>
       </c>
     </row>
-    <row r="759" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>391029</v>
       </c>
@@ -54333,7 +54333,7 @@
         <v>102515</v>
       </c>
     </row>
-    <row r="760" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>391542</v>
       </c>
@@ -54404,7 +54404,7 @@
         <v>102516</v>
       </c>
     </row>
-    <row r="761" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>392055</v>
       </c>
@@ -54475,7 +54475,7 @@
         <v>102517</v>
       </c>
     </row>
-    <row r="762" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>392568</v>
       </c>
@@ -54546,7 +54546,7 @@
         <v>102518</v>
       </c>
     </row>
-    <row r="763" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>393081</v>
       </c>
@@ -54617,7 +54617,7 @@
         <v>102519</v>
       </c>
     </row>
-    <row r="764" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>393594</v>
       </c>
@@ -54688,7 +54688,7 @@
         <v>102520</v>
       </c>
     </row>
-    <row r="765" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>394107</v>
       </c>
@@ -54759,7 +54759,7 @@
         <v>102521</v>
       </c>
     </row>
-    <row r="766" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>394620</v>
       </c>
@@ -54830,7 +54830,7 @@
         <v>102522</v>
       </c>
     </row>
-    <row r="767" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>395133</v>
       </c>
@@ -54901,7 +54901,7 @@
         <v>102523</v>
       </c>
     </row>
-    <row r="768" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>395646</v>
       </c>
@@ -54972,7 +54972,7 @@
         <v>102524</v>
       </c>
     </row>
-    <row r="769" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>396159</v>
       </c>
@@ -55043,7 +55043,7 @@
         <v>102525</v>
       </c>
     </row>
-    <row r="770" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>396672</v>
       </c>
@@ -55114,7 +55114,7 @@
         <v>102526</v>
       </c>
     </row>
-    <row r="771" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>397185</v>
       </c>
@@ -55185,7 +55185,7 @@
         <v>102527</v>
       </c>
     </row>
-    <row r="772" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>397698</v>
       </c>
@@ -55256,7 +55256,7 @@
         <v>102528</v>
       </c>
     </row>
-    <row r="773" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>398211</v>
       </c>
@@ -55327,7 +55327,7 @@
         <v>102529</v>
       </c>
     </row>
-    <row r="774" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>398724</v>
       </c>
@@ -55398,7 +55398,7 @@
         <v>102530</v>
       </c>
     </row>
-    <row r="775" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>399237</v>
       </c>
@@ -55469,7 +55469,7 @@
         <v>102531</v>
       </c>
     </row>
-    <row r="776" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>399750</v>
       </c>
@@ -55540,7 +55540,7 @@
         <v>102532</v>
       </c>
     </row>
-    <row r="777" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>400263</v>
       </c>
@@ -55611,7 +55611,7 @@
         <v>102533</v>
       </c>
     </row>
-    <row r="778" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>400776</v>
       </c>
@@ -55682,7 +55682,7 @@
         <v>102534</v>
       </c>
     </row>
-    <row r="779" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>401289</v>
       </c>
@@ -55753,7 +55753,7 @@
         <v>102535</v>
       </c>
     </row>
-    <row r="780" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>401802</v>
       </c>
@@ -55824,7 +55824,7 @@
         <v>102536</v>
       </c>
     </row>
-    <row r="781" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>402315</v>
       </c>
@@ -55895,7 +55895,7 @@
         <v>102537</v>
       </c>
     </row>
-    <row r="782" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>402828</v>
       </c>
@@ -55966,7 +55966,7 @@
         <v>102538</v>
       </c>
     </row>
-    <row r="783" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>403341</v>
       </c>
@@ -56037,7 +56037,7 @@
         <v>102539</v>
       </c>
     </row>
-    <row r="784" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>403854</v>
       </c>
@@ -56108,7 +56108,7 @@
         <v>102540</v>
       </c>
     </row>
-    <row r="785" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>404367</v>
       </c>
@@ -56179,7 +56179,7 @@
         <v>102541</v>
       </c>
     </row>
-    <row r="786" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>404880</v>
       </c>
@@ -56250,7 +56250,7 @@
         <v>102542</v>
       </c>
     </row>
-    <row r="787" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>405393</v>
       </c>
@@ -56321,7 +56321,7 @@
         <v>102543</v>
       </c>
     </row>
-    <row r="788" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>405906</v>
       </c>
@@ -56392,7 +56392,7 @@
         <v>102544</v>
       </c>
     </row>
-    <row r="789" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>406419</v>
       </c>
@@ -56463,7 +56463,7 @@
         <v>102545</v>
       </c>
     </row>
-    <row r="790" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>406932</v>
       </c>
@@ -56534,7 +56534,7 @@
         <v>102546</v>
       </c>
     </row>
-    <row r="791" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>407445</v>
       </c>
@@ -56605,7 +56605,7 @@
         <v>102547</v>
       </c>
     </row>
-    <row r="792" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>407958</v>
       </c>
@@ -56676,7 +56676,7 @@
         <v>102548</v>
       </c>
     </row>
-    <row r="793" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>408471</v>
       </c>
@@ -56747,7 +56747,7 @@
         <v>102549</v>
       </c>
     </row>
-    <row r="794" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>408984</v>
       </c>
@@ -56818,7 +56818,7 @@
         <v>102550</v>
       </c>
     </row>
-    <row r="795" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>409497</v>
       </c>
@@ -56889,7 +56889,7 @@
         <v>102551</v>
       </c>
     </row>
-    <row r="796" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>410010</v>
       </c>
@@ -56960,7 +56960,7 @@
         <v>102552</v>
       </c>
     </row>
-    <row r="797" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>410523</v>
       </c>
@@ -57031,7 +57031,7 @@
         <v>102553</v>
       </c>
     </row>
-    <row r="798" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>411036</v>
       </c>
@@ -57102,7 +57102,7 @@
         <v>102554</v>
       </c>
     </row>
-    <row r="799" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>411549</v>
       </c>
@@ -57173,7 +57173,7 @@
         <v>102555</v>
       </c>
     </row>
-    <row r="800" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>412062</v>
       </c>
@@ -57244,7 +57244,7 @@
         <v>102556</v>
       </c>
     </row>
-    <row r="801" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>412575</v>
       </c>
@@ -57315,7 +57315,7 @@
         <v>102557</v>
       </c>
     </row>
-    <row r="802" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>413088</v>
       </c>
@@ -57386,7 +57386,7 @@
         <v>102558</v>
       </c>
     </row>
-    <row r="803" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>413601</v>
       </c>
@@ -57457,7 +57457,7 @@
         <v>102559</v>
       </c>
     </row>
-    <row r="804" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>414114</v>
       </c>
@@ -57528,7 +57528,7 @@
         <v>102600</v>
       </c>
     </row>
-    <row r="805" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>414627</v>
       </c>
@@ -57599,7 +57599,7 @@
         <v>102601</v>
       </c>
     </row>
-    <row r="806" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>415140</v>
       </c>
@@ -57670,7 +57670,7 @@
         <v>102602</v>
       </c>
     </row>
-    <row r="807" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>415653</v>
       </c>
@@ -57741,7 +57741,7 @@
         <v>102603</v>
       </c>
     </row>
-    <row r="808" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>416166</v>
       </c>
@@ -57812,7 +57812,7 @@
         <v>102604</v>
       </c>
     </row>
-    <row r="809" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>416679</v>
       </c>
@@ -57883,7 +57883,7 @@
         <v>102605</v>
       </c>
     </row>
-    <row r="810" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>417192</v>
       </c>
@@ -57954,7 +57954,7 @@
         <v>102606</v>
       </c>
     </row>
-    <row r="811" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>417705</v>
       </c>
@@ -58025,7 +58025,7 @@
         <v>102607</v>
       </c>
     </row>
-    <row r="812" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>418218</v>
       </c>
@@ -58096,7 +58096,7 @@
         <v>102608</v>
       </c>
     </row>
-    <row r="813" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>418731</v>
       </c>
@@ -58167,7 +58167,7 @@
         <v>102609</v>
       </c>
     </row>
-    <row r="814" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>419244</v>
       </c>
@@ -58238,7 +58238,7 @@
         <v>102610</v>
       </c>
     </row>
-    <row r="815" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>419757</v>
       </c>
@@ -58309,7 +58309,7 @@
         <v>102611</v>
       </c>
     </row>
-    <row r="816" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>420270</v>
       </c>
@@ -58380,7 +58380,7 @@
         <v>102612</v>
       </c>
     </row>
-    <row r="817" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>420783</v>
       </c>
@@ -58451,7 +58451,7 @@
         <v>102613</v>
       </c>
     </row>
-    <row r="818" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>421296</v>
       </c>
@@ -58522,7 +58522,7 @@
         <v>102614</v>
       </c>
     </row>
-    <row r="819" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>421809</v>
       </c>
@@ -58593,7 +58593,7 @@
         <v>102615</v>
       </c>
     </row>
-    <row r="820" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>422322</v>
       </c>
@@ -58664,7 +58664,7 @@
         <v>102616</v>
       </c>
     </row>
-    <row r="821" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>422835</v>
       </c>
@@ -58735,7 +58735,7 @@
         <v>102617</v>
       </c>
     </row>
-    <row r="822" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>423348</v>
       </c>
@@ -58806,7 +58806,7 @@
         <v>102618</v>
       </c>
     </row>
-    <row r="823" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>423861</v>
       </c>
@@ -58877,7 +58877,7 @@
         <v>102619</v>
       </c>
     </row>
-    <row r="824" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>424374</v>
       </c>
@@ -58948,7 +58948,7 @@
         <v>102620</v>
       </c>
     </row>
-    <row r="825" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>424887</v>
       </c>
@@ -59019,7 +59019,7 @@
         <v>102621</v>
       </c>
     </row>
-    <row r="826" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>425400</v>
       </c>
@@ -59090,7 +59090,7 @@
         <v>102622</v>
       </c>
     </row>
-    <row r="827" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>425913</v>
       </c>
@@ -59161,7 +59161,7 @@
         <v>102623</v>
       </c>
     </row>
-    <row r="828" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>426426</v>
       </c>
@@ -59232,7 +59232,7 @@
         <v>102624</v>
       </c>
     </row>
-    <row r="829" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>426939</v>
       </c>
@@ -59303,7 +59303,7 @@
         <v>102625</v>
       </c>
     </row>
-    <row r="830" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>427452</v>
       </c>
@@ -59374,7 +59374,7 @@
         <v>102626</v>
       </c>
     </row>
-    <row r="831" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>427965</v>
       </c>
@@ -59445,7 +59445,7 @@
         <v>102627</v>
       </c>
     </row>
-    <row r="832" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>428478</v>
       </c>
@@ -59516,7 +59516,7 @@
         <v>102628</v>
       </c>
     </row>
-    <row r="833" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>428991</v>
       </c>
@@ -59587,7 +59587,7 @@
         <v>102629</v>
       </c>
     </row>
-    <row r="834" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>429504</v>
       </c>
@@ -59658,7 +59658,7 @@
         <v>102630</v>
       </c>
     </row>
-    <row r="835" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>430017</v>
       </c>
@@ -59729,7 +59729,7 @@
         <v>102631</v>
       </c>
     </row>
-    <row r="836" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>430530</v>
       </c>
@@ -59800,7 +59800,7 @@
         <v>102632</v>
       </c>
     </row>
-    <row r="837" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>431043</v>
       </c>
@@ -59871,7 +59871,7 @@
         <v>102633</v>
       </c>
     </row>
-    <row r="838" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>431556</v>
       </c>
@@ -59942,7 +59942,7 @@
         <v>102634</v>
       </c>
     </row>
-    <row r="839" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>432069</v>
       </c>
@@ -60013,7 +60013,7 @@
         <v>102635</v>
       </c>
     </row>
-    <row r="840" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>432582</v>
       </c>
@@ -60084,7 +60084,7 @@
         <v>102636</v>
       </c>
     </row>
-    <row r="841" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>433095</v>
       </c>
@@ -60155,7 +60155,7 @@
         <v>102637</v>
       </c>
     </row>
-    <row r="842" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>433608</v>
       </c>
@@ -60226,7 +60226,7 @@
         <v>102638</v>
       </c>
     </row>
-    <row r="843" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>434121</v>
       </c>
@@ -60297,7 +60297,7 @@
         <v>102639</v>
       </c>
     </row>
-    <row r="844" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>434634</v>
       </c>
@@ -60368,7 +60368,7 @@
         <v>102640</v>
       </c>
     </row>
-    <row r="845" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>435147</v>
       </c>
@@ -60439,7 +60439,7 @@
         <v>102641</v>
       </c>
     </row>
-    <row r="846" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>435660</v>
       </c>
@@ -60510,7 +60510,7 @@
         <v>102642</v>
       </c>
     </row>
-    <row r="847" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>436173</v>
       </c>
@@ -60581,7 +60581,7 @@
         <v>102643</v>
       </c>
     </row>
-    <row r="848" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>436686</v>
       </c>
@@ -60652,7 +60652,7 @@
         <v>102644</v>
       </c>
     </row>
-    <row r="849" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>437199</v>
       </c>
@@ -60723,7 +60723,7 @@
         <v>102645</v>
       </c>
     </row>
-    <row r="850" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>437712</v>
       </c>
@@ -60794,7 +60794,7 @@
         <v>102646</v>
       </c>
     </row>
-    <row r="851" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>438225</v>
       </c>
@@ -60865,7 +60865,7 @@
         <v>102647</v>
       </c>
     </row>
-    <row r="852" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>438738</v>
       </c>
@@ -60936,7 +60936,7 @@
         <v>102648</v>
       </c>
     </row>
-    <row r="853" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>439251</v>
       </c>
@@ -61007,7 +61007,7 @@
         <v>102649</v>
       </c>
     </row>
-    <row r="854" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>439764</v>
       </c>
@@ -61078,7 +61078,7 @@
         <v>102650</v>
       </c>
     </row>
-    <row r="855" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>440277</v>
       </c>
@@ -61149,7 +61149,7 @@
         <v>102651</v>
       </c>
     </row>
-    <row r="856" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>440790</v>
       </c>
@@ -61220,7 +61220,7 @@
         <v>102652</v>
       </c>
     </row>
-    <row r="857" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>441303</v>
       </c>
@@ -61291,7 +61291,7 @@
         <v>102653</v>
       </c>
     </row>
-    <row r="858" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>441816</v>
       </c>
@@ -61362,7 +61362,7 @@
         <v>102654</v>
       </c>
     </row>
-    <row r="859" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>442329</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>102654</v>
       </c>
     </row>
-    <row r="860" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>442842</v>
       </c>
@@ -61504,7 +61504,7 @@
         <v>102655</v>
       </c>
     </row>
-    <row r="861" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>443355</v>
       </c>
@@ -61575,7 +61575,7 @@
         <v>102657</v>
       </c>
     </row>
-    <row r="862" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>443868</v>
       </c>
@@ -61646,7 +61646,7 @@
         <v>102657</v>
       </c>
     </row>
-    <row r="863" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>444381</v>
       </c>
@@ -61717,7 +61717,7 @@
         <v>102659</v>
       </c>
     </row>
-    <row r="864" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>444894</v>
       </c>
@@ -61788,7 +61788,7 @@
         <v>102659</v>
       </c>
     </row>
-    <row r="865" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>445407</v>
       </c>
@@ -61859,7 +61859,7 @@
         <v>102700</v>
       </c>
     </row>
-    <row r="866" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>445920</v>
       </c>
@@ -61930,7 +61930,7 @@
         <v>102701</v>
       </c>
     </row>
-    <row r="867" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>446433</v>
       </c>
@@ -62001,7 +62001,7 @@
         <v>102702</v>
       </c>
     </row>
-    <row r="868" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>446946</v>
       </c>
@@ -62072,7 +62072,7 @@
         <v>102703</v>
       </c>
     </row>
-    <row r="869" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>447459</v>
       </c>
@@ -62143,7 +62143,7 @@
         <v>102704</v>
       </c>
     </row>
-    <row r="870" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>447972</v>
       </c>
@@ -62214,7 +62214,7 @@
         <v>102705</v>
       </c>
     </row>
-    <row r="871" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>448485</v>
       </c>
@@ -62285,7 +62285,7 @@
         <v>102706</v>
       </c>
     </row>
-    <row r="872" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>448998</v>
       </c>
@@ -62356,7 +62356,7 @@
         <v>102707</v>
       </c>
     </row>
-    <row r="873" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>449511</v>
       </c>
@@ -62427,7 +62427,7 @@
         <v>102708</v>
       </c>
     </row>
-    <row r="874" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>450024</v>
       </c>
@@ -62498,7 +62498,7 @@
         <v>102709</v>
       </c>
     </row>
-    <row r="875" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>450537</v>
       </c>
@@ -62569,7 +62569,7 @@
         <v>102710</v>
       </c>
     </row>
-    <row r="876" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>451050</v>
       </c>
@@ -62640,7 +62640,7 @@
         <v>102711</v>
       </c>
     </row>
-    <row r="877" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>451563</v>
       </c>
@@ -62711,7 +62711,7 @@
         <v>102712</v>
       </c>
     </row>
-    <row r="878" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="878" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>452076</v>
       </c>
@@ -62782,7 +62782,7 @@
         <v>102713</v>
       </c>
     </row>
-    <row r="879" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="879" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>452589</v>
       </c>
@@ -62853,7 +62853,7 @@
         <v>102714</v>
       </c>
     </row>
-    <row r="880" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="880" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>453102</v>
       </c>
@@ -62924,7 +62924,7 @@
         <v>102715</v>
       </c>
     </row>
-    <row r="881" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="881" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>453615</v>
       </c>
@@ -62995,7 +62995,7 @@
         <v>102716</v>
       </c>
     </row>
-    <row r="882" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="882" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>454128</v>
       </c>
@@ -63066,7 +63066,7 @@
         <v>102717</v>
       </c>
     </row>
-    <row r="883" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="883" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>454641</v>
       </c>
@@ -63137,7 +63137,7 @@
         <v>102718</v>
       </c>
     </row>
-    <row r="884" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="884" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>455154</v>
       </c>
@@ -63208,7 +63208,7 @@
         <v>102719</v>
       </c>
     </row>
-    <row r="885" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="885" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>455667</v>
       </c>
@@ -63279,7 +63279,7 @@
         <v>102720</v>
       </c>
     </row>
-    <row r="886" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="886" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>456180</v>
       </c>
@@ -63350,7 +63350,7 @@
         <v>102721</v>
       </c>
     </row>
-    <row r="887" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="887" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>456693</v>
       </c>
@@ -63421,7 +63421,7 @@
         <v>102722</v>
       </c>
     </row>
-    <row r="888" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="888" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>457206</v>
       </c>
@@ -63492,7 +63492,7 @@
         <v>102723</v>
       </c>
     </row>
-    <row r="889" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="889" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>457719</v>
       </c>
@@ -63563,7 +63563,7 @@
         <v>102724</v>
       </c>
     </row>
-    <row r="890" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="890" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>458232</v>
       </c>
@@ -63634,7 +63634,7 @@
         <v>102725</v>
       </c>
     </row>
-    <row r="891" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="891" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>458745</v>
       </c>
@@ -63705,7 +63705,7 @@
         <v>102726</v>
       </c>
     </row>
-    <row r="892" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="892" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>459258</v>
       </c>
@@ -63776,7 +63776,7 @@
         <v>102727</v>
       </c>
     </row>
-    <row r="893" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="893" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>459771</v>
       </c>
@@ -63847,7 +63847,7 @@
         <v>102728</v>
       </c>
     </row>
-    <row r="894" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="894" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>460284</v>
       </c>
@@ -63918,7 +63918,7 @@
         <v>102729</v>
       </c>
     </row>
-    <row r="895" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="895" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>460797</v>
       </c>
@@ -63989,7 +63989,7 @@
         <v>102730</v>
       </c>
     </row>
-    <row r="896" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="896" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>461310</v>
       </c>
@@ -64060,7 +64060,7 @@
         <v>102731</v>
       </c>
     </row>
-    <row r="897" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="897" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>461823</v>
       </c>
@@ -64131,7 +64131,7 @@
         <v>102732</v>
       </c>
     </row>
-    <row r="898" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="898" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>462336</v>
       </c>
@@ -64202,7 +64202,7 @@
         <v>102733</v>
       </c>
     </row>
-    <row r="899" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="899" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>462849</v>
       </c>
@@ -64273,7 +64273,7 @@
         <v>102734</v>
       </c>
     </row>
-    <row r="900" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="900" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>463362</v>
       </c>
@@ -64344,7 +64344,7 @@
         <v>102735</v>
       </c>
     </row>
-    <row r="901" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="901" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>463875</v>
       </c>
@@ -64415,7 +64415,7 @@
         <v>102736</v>
       </c>
     </row>
-    <row r="902" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="902" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>464388</v>
       </c>
@@ -64486,7 +64486,7 @@
         <v>102737</v>
       </c>
     </row>
-    <row r="903" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="903" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>464901</v>
       </c>
@@ -64557,7 +64557,7 @@
         <v>102738</v>
       </c>
     </row>
-    <row r="904" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="904" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>465414</v>
       </c>
@@ -64628,7 +64628,7 @@
         <v>102739</v>
       </c>
     </row>
-    <row r="905" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="905" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>465927</v>
       </c>
@@ -64699,7 +64699,7 @@
         <v>102740</v>
       </c>
     </row>
-    <row r="906" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="906" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>466440</v>
       </c>
@@ -64770,7 +64770,7 @@
         <v>102741</v>
       </c>
     </row>
-    <row r="907" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="907" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>466953</v>
       </c>
@@ -64841,7 +64841,7 @@
         <v>102742</v>
       </c>
     </row>
-    <row r="908" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="908" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>467466</v>
       </c>
@@ -64912,7 +64912,7 @@
         <v>102743</v>
       </c>
     </row>
-    <row r="909" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="909" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>467979</v>
       </c>
@@ -64983,7 +64983,7 @@
         <v>102744</v>
       </c>
     </row>
-    <row r="910" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="910" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>468492</v>
       </c>
@@ -65054,7 +65054,7 @@
         <v>102745</v>
       </c>
     </row>
-    <row r="911" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="911" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>469005</v>
       </c>
@@ -65125,7 +65125,7 @@
         <v>102746</v>
       </c>
     </row>
-    <row r="912" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="912" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>469518</v>
       </c>
@@ -65196,7 +65196,7 @@
         <v>102747</v>
       </c>
     </row>
-    <row r="913" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="913" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>470031</v>
       </c>
@@ -65267,7 +65267,7 @@
         <v>102748</v>
       </c>
     </row>
-    <row r="914" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="914" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>470544</v>
       </c>
@@ -65338,7 +65338,7 @@
         <v>102749</v>
       </c>
     </row>
-    <row r="915" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="915" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>471057</v>
       </c>
@@ -65409,7 +65409,7 @@
         <v>102750</v>
       </c>
     </row>
-    <row r="916" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="916" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>471570</v>
       </c>
@@ -65480,7 +65480,7 @@
         <v>102751</v>
       </c>
     </row>
-    <row r="917" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="917" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>472083</v>
       </c>
@@ -65551,7 +65551,7 @@
         <v>102752</v>
       </c>
     </row>
-    <row r="918" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="918" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>472596</v>
       </c>
@@ -65622,7 +65622,7 @@
         <v>102753</v>
       </c>
     </row>
-    <row r="919" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="919" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>473109</v>
       </c>
@@ -65693,7 +65693,7 @@
         <v>102754</v>
       </c>
     </row>
-    <row r="920" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="920" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>473622</v>
       </c>
@@ -65764,7 +65764,7 @@
         <v>102755</v>
       </c>
     </row>
-    <row r="921" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="921" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>474135</v>
       </c>
@@ -65835,7 +65835,7 @@
         <v>102756</v>
       </c>
     </row>
-    <row r="922" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="922" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>474648</v>
       </c>
@@ -65906,7 +65906,7 @@
         <v>102757</v>
       </c>
     </row>
-    <row r="923" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="923" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>475161</v>
       </c>
@@ -65977,7 +65977,7 @@
         <v>102758</v>
       </c>
     </row>
-    <row r="924" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="924" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>475674</v>
       </c>
@@ -66048,7 +66048,7 @@
         <v>102759</v>
       </c>
     </row>
-    <row r="925" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="925" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>476187</v>
       </c>
@@ -66119,7 +66119,7 @@
         <v>102800</v>
       </c>
     </row>
-    <row r="926" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="926" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>476700</v>
       </c>
@@ -66190,7 +66190,7 @@
         <v>102801</v>
       </c>
     </row>
-    <row r="927" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="927" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>477213</v>
       </c>
@@ -66261,7 +66261,7 @@
         <v>102802</v>
       </c>
     </row>
-    <row r="928" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="928" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>477726</v>
       </c>
@@ -66332,7 +66332,7 @@
         <v>102803</v>
       </c>
     </row>
-    <row r="929" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="929" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>478239</v>
       </c>
@@ -66403,7 +66403,7 @@
         <v>102804</v>
       </c>
     </row>
-    <row r="930" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="930" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>478752</v>
       </c>
@@ -66474,7 +66474,7 @@
         <v>102805</v>
       </c>
     </row>
-    <row r="931" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="931" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>479265</v>
       </c>
@@ -66545,7 +66545,7 @@
         <v>102806</v>
       </c>
     </row>
-    <row r="932" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="932" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>479778</v>
       </c>
@@ -66616,7 +66616,7 @@
         <v>102807</v>
       </c>
     </row>
-    <row r="933" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="933" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>480291</v>
       </c>
@@ -66687,7 +66687,7 @@
         <v>102808</v>
       </c>
     </row>
-    <row r="934" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="934" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>480804</v>
       </c>
@@ -66758,7 +66758,7 @@
         <v>102809</v>
       </c>
     </row>
-    <row r="935" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="935" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>481317</v>
       </c>
@@ -66829,7 +66829,7 @@
         <v>102810</v>
       </c>
     </row>
-    <row r="936" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="936" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>481830</v>
       </c>
@@ -66900,7 +66900,7 @@
         <v>102811</v>
       </c>
     </row>
-    <row r="937" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="937" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>482343</v>
       </c>
@@ -66971,7 +66971,7 @@
         <v>102812</v>
       </c>
     </row>
-    <row r="938" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="938" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>482856</v>
       </c>
@@ -67042,7 +67042,7 @@
         <v>102813</v>
       </c>
     </row>
-    <row r="939" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="939" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>483369</v>
       </c>
@@ -67113,7 +67113,7 @@
         <v>102814</v>
       </c>
     </row>
-    <row r="940" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="940" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>483882</v>
       </c>
@@ -67184,7 +67184,7 @@
         <v>102815</v>
       </c>
     </row>
-    <row r="941" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="941" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>484395</v>
       </c>
@@ -67255,7 +67255,7 @@
         <v>102816</v>
       </c>
     </row>
-    <row r="942" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="942" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>484908</v>
       </c>
@@ -67326,7 +67326,7 @@
         <v>102817</v>
       </c>
     </row>
-    <row r="943" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="943" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>485421</v>
       </c>
@@ -67397,7 +67397,7 @@
         <v>102818</v>
       </c>
     </row>
-    <row r="944" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="944" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>485934</v>
       </c>
@@ -67468,7 +67468,7 @@
         <v>102819</v>
       </c>
     </row>
-    <row r="945" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="945" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>486447</v>
       </c>
@@ -67539,7 +67539,7 @@
         <v>102820</v>
       </c>
     </row>
-    <row r="946" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="946" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>486960</v>
       </c>
@@ -67610,7 +67610,7 @@
         <v>102821</v>
       </c>
     </row>
-    <row r="947" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="947" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>487473</v>
       </c>
@@ -67681,7 +67681,7 @@
         <v>102822</v>
       </c>
     </row>
-    <row r="948" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="948" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>487986</v>
       </c>
@@ -67752,7 +67752,7 @@
         <v>102823</v>
       </c>
     </row>
-    <row r="949" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="949" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>488499</v>
       </c>
@@ -67823,7 +67823,7 @@
         <v>102824</v>
       </c>
     </row>
-    <row r="950" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="950" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>489012</v>
       </c>
@@ -67894,7 +67894,7 @@
         <v>102825</v>
       </c>
     </row>
-    <row r="951" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="951" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>489525</v>
       </c>
@@ -67965,7 +67965,7 @@
         <v>102826</v>
       </c>
     </row>
-    <row r="952" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="952" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>490038</v>
       </c>
@@ -68036,7 +68036,7 @@
         <v>102827</v>
       </c>
     </row>
-    <row r="953" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="953" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>490551</v>
       </c>
@@ -68107,7 +68107,7 @@
         <v>102828</v>
       </c>
     </row>
-    <row r="954" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="954" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>491064</v>
       </c>
@@ -68178,7 +68178,7 @@
         <v>102829</v>
       </c>
     </row>
-    <row r="955" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="955" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>491577</v>
       </c>
@@ -68249,7 +68249,7 @@
         <v>102830</v>
       </c>
     </row>
-    <row r="956" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="956" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>492090</v>
       </c>
@@ -68320,7 +68320,7 @@
         <v>102831</v>
       </c>
     </row>
-    <row r="957" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="957" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>492603</v>
       </c>
@@ -68391,7 +68391,7 @@
         <v>102832</v>
       </c>
     </row>
-    <row r="958" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="958" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>493116</v>
       </c>
@@ -68462,7 +68462,7 @@
         <v>102833</v>
       </c>
     </row>
-    <row r="959" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="959" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>493629</v>
       </c>
@@ -68533,7 +68533,7 @@
         <v>102834</v>
       </c>
     </row>
-    <row r="960" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="960" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>494142</v>
       </c>
@@ -68604,7 +68604,7 @@
         <v>102835</v>
       </c>
     </row>
-    <row r="961" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="961" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>494655</v>
       </c>
@@ -68675,7 +68675,7 @@
         <v>102836</v>
       </c>
     </row>
-    <row r="962" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="962" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>495168</v>
       </c>
@@ -68746,7 +68746,7 @@
         <v>102837</v>
       </c>
     </row>
-    <row r="963" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="963" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>495681</v>
       </c>
@@ -68817,7 +68817,7 @@
         <v>102838</v>
       </c>
     </row>
-    <row r="964" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="964" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>496194</v>
       </c>
@@ -68888,7 +68888,7 @@
         <v>102839</v>
       </c>
     </row>
-    <row r="965" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="965" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>496707</v>
       </c>
@@ -68959,7 +68959,7 @@
         <v>102840</v>
       </c>
     </row>
-    <row r="966" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="966" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>497220</v>
       </c>
@@ -69030,7 +69030,7 @@
         <v>102841</v>
       </c>
     </row>
-    <row r="967" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="967" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>497733</v>
       </c>
@@ -69101,7 +69101,7 @@
         <v>102842</v>
       </c>
     </row>
-    <row r="968" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="968" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>498246</v>
       </c>
@@ -69172,7 +69172,7 @@
         <v>102843</v>
       </c>
     </row>
-    <row r="969" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="969" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>498759</v>
       </c>
@@ -69243,7 +69243,7 @@
         <v>102844</v>
       </c>
     </row>
-    <row r="970" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="970" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>499272</v>
       </c>
@@ -69314,7 +69314,7 @@
         <v>102845</v>
       </c>
     </row>
-    <row r="971" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="971" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>499785</v>
       </c>
@@ -69385,7 +69385,7 @@
         <v>102846</v>
       </c>
     </row>
-    <row r="972" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="972" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>500298</v>
       </c>
@@ -69456,7 +69456,7 @@
         <v>102847</v>
       </c>
     </row>
-    <row r="973" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="973" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>500811</v>
       </c>
@@ -69527,7 +69527,7 @@
         <v>102848</v>
       </c>
     </row>
-    <row r="974" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="974" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>501324</v>
       </c>
@@ -69598,7 +69598,7 @@
         <v>102849</v>
       </c>
     </row>
-    <row r="975" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="975" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>501837</v>
       </c>
@@ -69669,7 +69669,7 @@
         <v>102850</v>
       </c>
     </row>
-    <row r="976" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="976" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>502350</v>
       </c>
@@ -69740,7 +69740,7 @@
         <v>102851</v>
       </c>
     </row>
-    <row r="977" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="977" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>502863</v>
       </c>
@@ -69811,7 +69811,7 @@
         <v>102852</v>
       </c>
     </row>
-    <row r="978" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="978" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>503376</v>
       </c>
@@ -69882,7 +69882,7 @@
         <v>102853</v>
       </c>
     </row>
-    <row r="979" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="979" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>503889</v>
       </c>
@@ -69953,7 +69953,7 @@
         <v>102854</v>
       </c>
     </row>
-    <row r="980" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="980" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>504402</v>
       </c>
@@ -70024,7 +70024,7 @@
         <v>102855</v>
       </c>
     </row>
-    <row r="981" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="981" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>504915</v>
       </c>
@@ -70095,7 +70095,7 @@
         <v>102856</v>
       </c>
     </row>
-    <row r="982" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="982" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>505428</v>
       </c>
@@ -70166,7 +70166,7 @@
         <v>102857</v>
       </c>
     </row>
-    <row r="983" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="983" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>505941</v>
       </c>
@@ -70237,7 +70237,7 @@
         <v>102858</v>
       </c>
     </row>
-    <row r="984" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="984" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>506454</v>
       </c>
@@ -70308,7 +70308,7 @@
         <v>102859</v>
       </c>
     </row>
-    <row r="985" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="985" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>506967</v>
       </c>
@@ -70379,7 +70379,7 @@
         <v>102900</v>
       </c>
     </row>
-    <row r="986" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="986" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>507480</v>
       </c>
@@ -70450,7 +70450,7 @@
         <v>102901</v>
       </c>
     </row>
-    <row r="987" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="987" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>507993</v>
       </c>
@@ -70521,7 +70521,7 @@
         <v>102902</v>
       </c>
     </row>
-    <row r="988" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="988" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>508506</v>
       </c>
@@ -70592,7 +70592,7 @@
         <v>102903</v>
       </c>
     </row>
-    <row r="989" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="989" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>509019</v>
       </c>
@@ -70663,7 +70663,7 @@
         <v>102904</v>
       </c>
     </row>
-    <row r="990" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="990" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>509532</v>
       </c>
@@ -70734,7 +70734,7 @@
         <v>102905</v>
       </c>
     </row>
-    <row r="991" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="991" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>510045</v>
       </c>
@@ -70805,7 +70805,7 @@
         <v>102906</v>
       </c>
     </row>
-    <row r="992" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="992" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>510558</v>
       </c>
@@ -70876,7 +70876,7 @@
         <v>102907</v>
       </c>
     </row>
-    <row r="993" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>511071</v>
       </c>
@@ -70947,7 +70947,7 @@
         <v>102908</v>
       </c>
     </row>
-    <row r="994" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>511584</v>
       </c>
@@ -71018,7 +71018,7 @@
         <v>102909</v>
       </c>
     </row>
-    <row r="995" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>512097</v>
       </c>
@@ -71089,7 +71089,7 @@
         <v>102910</v>
       </c>
     </row>
-    <row r="996" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>512610</v>
       </c>
@@ -71160,7 +71160,7 @@
         <v>102911</v>
       </c>
     </row>
-    <row r="997" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>513123</v>
       </c>
@@ -71231,7 +71231,7 @@
         <v>102912</v>
       </c>
     </row>
-    <row r="998" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>513636</v>
       </c>
@@ -71302,7 +71302,7 @@
         <v>102913</v>
       </c>
     </row>
-    <row r="999" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="999" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>514149</v>
       </c>
@@ -71373,7 +71373,7 @@
         <v>102914</v>
       </c>
     </row>
-    <row r="1000" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>514662</v>
       </c>
@@ -71444,7 +71444,7 @@
         <v>102915</v>
       </c>
     </row>
-    <row r="1001" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>515175</v>
       </c>
@@ -71515,7 +71515,7 @@
         <v>102916</v>
       </c>
     </row>
-    <row r="1002" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>515688</v>
       </c>
@@ -71586,7 +71586,7 @@
         <v>102917</v>
       </c>
     </row>
-    <row r="1003" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>516201</v>
       </c>
@@ -71657,7 +71657,7 @@
         <v>102918</v>
       </c>
     </row>
-    <row r="1004" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>516714</v>
       </c>
@@ -71728,7 +71728,7 @@
         <v>102919</v>
       </c>
     </row>
-    <row r="1005" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>517227</v>
       </c>
@@ -71799,7 +71799,7 @@
         <v>102920</v>
       </c>
     </row>
-    <row r="1006" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>517740</v>
       </c>
@@ -71870,7 +71870,7 @@
         <v>102921</v>
       </c>
     </row>
-    <row r="1007" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1007" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>518253</v>
       </c>
@@ -71941,7 +71941,7 @@
         <v>102922</v>
       </c>
     </row>
-    <row r="1008" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1008" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>518766</v>
       </c>
@@ -72012,7 +72012,7 @@
         <v>102923</v>
       </c>
     </row>
-    <row r="1009" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1009" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>519279</v>
       </c>
@@ -72083,7 +72083,7 @@
         <v>102924</v>
       </c>
     </row>
-    <row r="1010" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1010" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>519792</v>
       </c>
@@ -72154,7 +72154,7 @@
         <v>102925</v>
       </c>
     </row>
-    <row r="1011" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1011" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>520305</v>
       </c>
@@ -72225,7 +72225,7 @@
         <v>102926</v>
       </c>
     </row>
-    <row r="1012" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1012" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>520818</v>
       </c>
@@ -72296,7 +72296,7 @@
         <v>102927</v>
       </c>
     </row>
-    <row r="1013" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1013" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>521331</v>
       </c>
@@ -72367,7 +72367,7 @@
         <v>102928</v>
       </c>
     </row>
-    <row r="1014" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1014" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>521844</v>
       </c>
@@ -72438,7 +72438,7 @@
         <v>102929</v>
       </c>
     </row>
-    <row r="1015" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1015" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>522357</v>
       </c>
@@ -72509,7 +72509,7 @@
         <v>102930</v>
       </c>
     </row>
-    <row r="1016" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1016" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>522870</v>
       </c>
@@ -72580,7 +72580,7 @@
         <v>102931</v>
       </c>
     </row>
-    <row r="1017" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1017" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>523383</v>
       </c>
@@ -72651,7 +72651,7 @@
         <v>102932</v>
       </c>
     </row>
-    <row r="1018" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1018" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>523896</v>
       </c>
@@ -72722,7 +72722,7 @@
         <v>102933</v>
       </c>
     </row>
-    <row r="1019" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1019" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>524409</v>
       </c>
@@ -72793,7 +72793,7 @@
         <v>102934</v>
       </c>
     </row>
-    <row r="1020" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1020" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>524922</v>
       </c>
@@ -72864,7 +72864,7 @@
         <v>102935</v>
       </c>
     </row>
-    <row r="1021" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1021" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>525435</v>
       </c>
@@ -72935,7 +72935,7 @@
         <v>102936</v>
       </c>
     </row>
-    <row r="1022" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1022" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>525948</v>
       </c>
@@ -73006,7 +73006,7 @@
         <v>102937</v>
       </c>
     </row>
-    <row r="1023" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1023" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>526461</v>
       </c>
@@ -73077,7 +73077,7 @@
         <v>102938</v>
       </c>
     </row>
-    <row r="1024" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1024" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>526974</v>
       </c>
@@ -73148,7 +73148,7 @@
         <v>102939</v>
       </c>
     </row>
-    <row r="1025" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1025" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>527487</v>
       </c>
@@ -73219,7 +73219,7 @@
         <v>102940</v>
       </c>
     </row>
-    <row r="1026" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1026" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>528000</v>
       </c>
@@ -73290,7 +73290,7 @@
         <v>102941</v>
       </c>
     </row>
-    <row r="1027" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1027" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>528513</v>
       </c>
@@ -73361,7 +73361,7 @@
         <v>102942</v>
       </c>
     </row>
-    <row r="1028" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1028" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>529026</v>
       </c>
@@ -73432,7 +73432,7 @@
         <v>102943</v>
       </c>
     </row>
-    <row r="1029" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1029" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>529539</v>
       </c>
@@ -73503,7 +73503,7 @@
         <v>102944</v>
       </c>
     </row>
-    <row r="1030" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1030" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>530052</v>
       </c>
@@ -73574,7 +73574,7 @@
         <v>102945</v>
       </c>
     </row>
-    <row r="1031" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1031" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>530565</v>
       </c>
@@ -73645,7 +73645,7 @@
         <v>102946</v>
       </c>
     </row>
-    <row r="1032" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1032" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>531078</v>
       </c>
@@ -73716,7 +73716,7 @@
         <v>102947</v>
       </c>
     </row>
-    <row r="1033" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1033" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>531591</v>
       </c>
@@ -73787,7 +73787,7 @@
         <v>102948</v>
       </c>
     </row>
-    <row r="1034" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1034" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>532104</v>
       </c>
@@ -73858,7 +73858,7 @@
         <v>102949</v>
       </c>
     </row>
-    <row r="1035" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1035" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>532617</v>
       </c>
@@ -73929,7 +73929,7 @@
         <v>102950</v>
       </c>
     </row>
-    <row r="1036" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1036" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>533130</v>
       </c>
@@ -74000,7 +74000,7 @@
         <v>102951</v>
       </c>
     </row>
-    <row r="1037" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1037" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>533643</v>
       </c>
@@ -74071,7 +74071,7 @@
         <v>102952</v>
       </c>
     </row>
-    <row r="1038" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1038" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>534156</v>
       </c>
@@ -74142,7 +74142,7 @@
         <v>102953</v>
       </c>
     </row>
-    <row r="1039" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1039" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>534669</v>
       </c>
@@ -74213,7 +74213,7 @@
         <v>102954</v>
       </c>
     </row>
-    <row r="1040" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1040" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>535182</v>
       </c>
@@ -74284,7 +74284,7 @@
         <v>102955</v>
       </c>
     </row>
-    <row r="1041" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1041" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>535695</v>
       </c>
@@ -74355,7 +74355,7 @@
         <v>102956</v>
       </c>
     </row>
-    <row r="1042" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1042" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>536208</v>
       </c>
@@ -74426,7 +74426,7 @@
         <v>102957</v>
       </c>
     </row>
-    <row r="1043" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1043" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>536721</v>
       </c>
@@ -74497,7 +74497,7 @@
         <v>102958</v>
       </c>
     </row>
-    <row r="1044" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1044" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>537234</v>
       </c>
@@ -74568,7 +74568,7 @@
         <v>102959</v>
       </c>
     </row>
-    <row r="1045" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1045" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>537747</v>
       </c>
@@ -74639,7 +74639,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="1046" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1046" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>538260</v>
       </c>
@@ -74710,7 +74710,7 @@
         <v>103001</v>
       </c>
     </row>
-    <row r="1047" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1047" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>538773</v>
       </c>
